--- a/Modelagens/Modelo_Fisico .xlsx
+++ b/Modelagens/Modelo_Fisico .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\45626492836.INFOSCS\Desktop\tcc_senaiSCS\Modelagens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26095387-BA9A-49B2-8A8C-B06596050335}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E69E42-9F73-4068-AB2D-33EC2DD10908}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="2" xr2:uid="{A102B295-A570-47F8-AE88-295B9F4A8804}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{A102B295-A570-47F8-AE88-295B9F4A8804}"/>
   </bookViews>
   <sheets>
     <sheet name="Usuario" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>email</t>
   </si>
@@ -72,12 +72,6 @@
   </si>
   <si>
     <t>idTipoUsuario</t>
-  </si>
-  <si>
-    <t>juscelino@132</t>
-  </si>
-  <si>
-    <t>marketing@132</t>
   </si>
   <si>
     <t>teste/img/teste1.png</t>
@@ -137,13 +131,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -459,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F494A92-9959-4CFA-9282-654B27054C27}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -473,7 +468,7 @@
     <col min="5" max="5" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -490,7 +485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -503,11 +498,11 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" s="1">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -520,16 +515,20 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="E3" s="1">
+        <v>87654321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H7" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{040D242F-9992-4D71-B6B4-E53F224C1D45}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{FE6292FA-20AE-4DA0-85C8-CB5EDD69DE6B}"/>
+    <hyperlink ref="E2" r:id="rId1" display="juscelino@132" xr:uid="{040D242F-9992-4D71-B6B4-E53F224C1D45}"/>
+    <hyperlink ref="E3" r:id="rId2" display="marketing@132" xr:uid="{FE6292FA-20AE-4DA0-85C8-CB5EDD69DE6B}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -552,7 +551,7 @@
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -560,7 +559,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -568,7 +567,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -580,7 +579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F58F39-E169-41B0-990A-26FA18E019CE}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -622,7 +621,7 @@
         <v>45065</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -640,7 +639,7 @@
         <v>45229</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H3" s="2"/>
     </row>
